--- a/Uploads/TemplateFormate.xlsx
+++ b/Uploads/TemplateFormate.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCI\Desktop\Pathways\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PCI PROJECT\Hunarmis\Hunarmis\Hunarmis\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05674BFE-0BBD-4BC7-BE28-71E4AD5474AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{849F6D17-384A-44EA-9C51-A346F3814035}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Participant_template" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Raw" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="235">
   <si>
     <t>StateName</t>
   </si>
@@ -740,16 +739,19 @@
   </si>
   <si>
     <t>Dummy 2</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,40 +1128,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124B1F60-93AA-4382-B449-66CE602FA555}">
-  <dimension ref="A1:AB89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7265625" customWidth="1"/>
-    <col min="28" max="28" width="12.36328125" customWidth="1"/>
+    <col min="4" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7265625" customWidth="1"/>
+    <col min="29" max="29" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,46 +1175,49 @@
         <v>216</v>
       </c>
       <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1225,48 +1230,48 @@
       <c r="D2" t="s">
         <v>217</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7777777777</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>777777888888</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
       <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
         <v>230</v>
       </c>
-      <c r="AB2" s="3"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1279,318 +1284,318 @@
       <c r="D3" t="s">
         <v>217</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6666666666</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>666666777777</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
       <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
         <v>231</v>
       </c>
-      <c r="AB3" s="3"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H4" s="2"/>
-      <c r="AB4" s="3"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H5" s="2"/>
-      <c r="AB5" s="3"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H89" s="2"/>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="I4" s="2"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="I5" s="2"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="9:9">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="9:9">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="9:9">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="9:9">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="9:9">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="9:9">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="9:9">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="9:9">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="9:9">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="9:9">
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="9:9">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="9:9">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="9:9">
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="9:9">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="9:9">
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="9:9">
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="9:9">
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="9:9">
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="9:9">
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="9:9">
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="9:9">
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="9:9">
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="9:9">
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="9:9">
+      <c r="I89" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048574" xr:uid="{541C24FA-A3E8-47DB-B98C-E2F3EFBDFA87}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048574">
       <formula1>18</formula1>
       <formula2>60</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048574" xr:uid="{6C0A03F3-D3B1-4EA9-ABAF-6971713A5A75}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048574">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048574" xr:uid="{8C57350E-3752-428C-B2E4-FC5D77D75FAE}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048574">
       <formula1>AND(ISERROR(FIND(" ",A1)),LEN(A1)-LEN(SUBSTITUTE(A1,"@",""))=1,IFERROR(SEARCH("@",A1)&lt;SEARCH(". ",A1,SEARCH("@",A1)),0),NOT(IFERROR(SEARCH("@",A1),0)=1),NOT(IFERROR(SEARCH(". ",A1,SEARCH("@",A1))-SEARCH("@",A1),0)=1),LEFT(A1,1)&lt;&gt;".",RIGHT(A1,1)&lt;&gt;".")</formula1>
     </dataValidation>
   </dataValidations>
@@ -1598,59 +1603,59 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08E77661-6BB1-4062-93FF-8F0CBFE0AB61}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048574</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B0E3B3F-92C2-43CA-8232-4228B7CFB1EA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048574</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1446F27E-7346-429A-8588-ABFE477C6CAB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048574</xm:sqref>
+          <xm:sqref>D2:E1048574</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06DA0220-B9D3-4B1D-BADA-299969578AFA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$20</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1048574</xm:sqref>
+          <xm:sqref>J2:J1048574</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51CC2EBB-8A0A-410A-AE13-395BD42EB98D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048574</xm:sqref>
+          <xm:sqref>L2:L1048574</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E1CACA6-8A40-4ABF-A0B5-A92A5D9A8C7F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048574</xm:sqref>
+          <xm:sqref>N2:N1048574</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60560737-6CF2-461E-A688-EB4E1B1B92C4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$1:$G$19</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N1048574</xm:sqref>
+          <xm:sqref>O2:O1048574</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5ABCA2A2-4B48-4287-ADB9-B2BDE6CE3354}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$H$2:$H$79</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O1048574</xm:sqref>
+          <xm:sqref>P2:P1048574</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAF90A4D-0697-42DB-A269-B8D0BCDA9BF4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q1048574</xm:sqref>
+          <xm:sqref>R2:R1048574</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1659,14 +1664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862535C9-D4F8-4DCB-B987-49FC06A51126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.26953125" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
@@ -1678,7 +1683,7 @@
     <col min="13" max="13" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -1707,7 +1712,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -1759,7 +1764,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="B4" s="3" t="s">
         <v>223</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="B5" s="3" t="s">
         <v>224</v>
       </c>
@@ -1793,7 +1798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67ADC89-1CBD-444D-97F8-D6B931D006AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1803,7 +1808,7 @@
       <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
@@ -1823,7 +1828,7 @@
     <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1973,7 +1978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2023,7 +2028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2073,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2123,7 +2128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2323,7 +2328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2373,7 +2378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2423,7 +2428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2523,7 +2528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2573,7 +2578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2773,7 +2778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2973,7 +2978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3123,7 +3128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3173,7 +3178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -3223,7 +3228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -3273,7 +3278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -3323,7 +3328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3373,7 +3378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -3423,7 +3428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -3473,7 +3478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3523,7 +3528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -3573,7 +3578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -3623,7 +3628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -3673,7 +3678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -3723,7 +3728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -3773,7 +3778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3973,7 +3978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4023,7 +4028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4073,7 +4078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -4123,7 +4128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -4173,7 +4178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -4273,7 +4278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -4323,7 +4328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -4373,7 +4378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -4473,7 +4478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -4523,7 +4528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -4573,7 +4578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -4623,7 +4628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -4723,7 +4728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -4823,7 +4828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -4923,7 +4928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -4973,7 +4978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5173,7 +5178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -5223,7 +5228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -5323,7 +5328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -5373,7 +5378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -5423,7 +5428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -5473,7 +5478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -5523,7 +5528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -5573,7 +5578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -5623,7 +5628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -5723,7 +5728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -5773,7 +5778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -5823,7 +5828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -5873,7 +5878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -5923,7 +5928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -5973,7 +5978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -6073,7 +6078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -6123,7 +6128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -6173,7 +6178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -6223,7 +6228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>15</v>
       </c>

--- a/Uploads/TemplateFormate.xlsx
+++ b/Uploads/TemplateFormate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PCI PROJECT\Hunarmis\Hunarmis\Hunarmis\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PCI PROJECT\Hunarmis\Files\Importfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Participant_template" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Raw" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Raw" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="233">
   <si>
     <t>StateName</t>
   </si>
@@ -696,36 +695,6 @@
     <t>734534571615</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagpur </t>
-  </si>
-  <si>
-    <t>Nashik</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Courses</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
     <t>IsPlaced</t>
   </si>
   <si>
@@ -741,17 +710,42 @@
     <t>Dummy 2</t>
   </si>
   <si>
+    <t>DOBDD</t>
+  </si>
+  <si>
+    <t>DOBMM</t>
+  </si>
+  <si>
+    <t>DOBYYYY</t>
+  </si>
+  <si>
     <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>10th (SSC)</t>
+  </si>
+  <si>
+    <t>Rasika Corp - MRG-7</t>
+  </si>
+  <si>
+    <t>Bhartiya Shikshan Sanstha - MRG-1</t>
+  </si>
+  <si>
+    <t>Prashant Jethe</t>
+  </si>
+  <si>
+    <t>Arun Davidas Chaudhari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000000000000"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,20 +759,40 @@
       <name val="Tenorite"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tenorite"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -801,19 +815,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,13 +1177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC89"/>
+  <dimension ref="A1:AC605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1154,9 +1202,10 @@
     <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="25" width="8.7265625" customWidth="1"/>
+    <col min="26" max="26" width="8.36328125" customWidth="1"/>
     <col min="28" max="28" width="11.7265625" customWidth="1"/>
     <col min="29" max="29" width="12.36328125" customWidth="1"/>
   </cols>
@@ -1174,8 +1223,8 @@
       <c r="D1" t="s">
         <v>216</v>
       </c>
-      <c r="E1" t="s">
-        <v>234</v>
+      <c r="E1" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1214,10 +1263,19 @@
         <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <v>219</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1225,10 +1283,13 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
         <v>217</v>
+      </c>
+      <c r="E2" s="6">
+        <v>36697</v>
       </c>
       <c r="F2">
         <v>26</v>
@@ -1245,33 +1306,43 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="12">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="R2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>TEXT(E2,"dd")</f>
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>230</v>
+      <c r="T2" s="4" t="str">
+        <f>TEXT(E2,"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="U2" s="4" t="str">
+        <f>TEXT(E2,"yyyy")</f>
+        <v>2000</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1279,10 +1350,13 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
         <v>217</v>
+      </c>
+      <c r="E3" s="7">
+        <v>35685</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -1299,505 +1373,1952 @@
       <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="12">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
+      <c r="M3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
+      <c r="P3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="R3" t="s">
-        <v>231</v>
+        <v>221</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f>TEXT(E3,"dd")</f>
+        <v>12</v>
+      </c>
+      <c r="T3" s="4" t="str">
+        <f>TEXT(E3,"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="U3" s="4" t="str">
+        <f>TEXT(E3,"yyyy")</f>
+        <v>1997</v>
       </c>
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29">
+      <c r="E4" s="8"/>
       <c r="I4" s="2"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29">
+      <c r="E5" s="8"/>
       <c r="I5" s="2"/>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29">
+      <c r="E6" s="8"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:29">
+      <c r="E7" s="8"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:29">
+      <c r="E8" s="8"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:29">
+      <c r="E9" s="8"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:29">
+      <c r="E10" s="8"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:29">
+      <c r="E11" s="8"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:29">
+      <c r="E12" s="8"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:29">
+      <c r="E13" s="8"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:29">
+      <c r="E14" s="8"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:29">
+      <c r="E15" s="8"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:29">
+      <c r="E16" s="8"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="5:9">
+      <c r="E17" s="8"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="5:9">
+      <c r="E18" s="8"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="5:9">
+      <c r="E19" s="8"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="5:9">
+      <c r="E20" s="8"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="5:9">
+      <c r="E21" s="8"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="5:9">
+      <c r="E22" s="8"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="5:9">
+      <c r="E23" s="8"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="5:9">
+      <c r="E24" s="8"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="5:9">
+      <c r="E25" s="8"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="5:9">
+      <c r="E26" s="8"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="5:9">
+      <c r="E27" s="8"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="5:9">
+      <c r="E28" s="8"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="5:9">
+      <c r="E29" s="8"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="9:9">
+    <row r="30" spans="5:9">
+      <c r="E30" s="8"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="9:9">
+    <row r="31" spans="5:9">
+      <c r="E31" s="8"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="9:9">
+    <row r="32" spans="5:9">
+      <c r="E32" s="8"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="5:9">
+      <c r="E33" s="8"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="5:9">
+      <c r="E34" s="8"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="5:9">
+      <c r="E35" s="8"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="5:9">
+      <c r="E36" s="8"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="5:9">
+      <c r="E37" s="9"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="5:9">
+      <c r="E38" s="9"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="5:9">
+      <c r="E39" s="9"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="5:9">
+      <c r="E40" s="9"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="5:9">
+      <c r="E41" s="9"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="5:9">
+      <c r="E42" s="9"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="9:9">
+    <row r="43" spans="5:9">
+      <c r="E43" s="9"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="5:9">
+      <c r="E44" s="9"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="5:9">
+      <c r="E45" s="9"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="5:9">
+      <c r="E46" s="9"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="9:9">
+    <row r="47" spans="5:9">
+      <c r="E47" s="9"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="9:9">
+    <row r="48" spans="5:9">
+      <c r="E48" s="9"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="5:9">
+      <c r="E49" s="9"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="9:9">
+    <row r="50" spans="5:9">
+      <c r="E50" s="9"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="9:9">
+    <row r="51" spans="5:9">
+      <c r="E51" s="9"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="9:9">
+    <row r="52" spans="5:9">
+      <c r="E52" s="9"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="9:9">
+    <row r="53" spans="5:9">
+      <c r="E53" s="9"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="9:9">
+    <row r="54" spans="5:9">
+      <c r="E54" s="9"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="9:9">
+    <row r="55" spans="5:9">
+      <c r="E55" s="9"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="9:9">
+    <row r="56" spans="5:9">
+      <c r="E56" s="9"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="9:9">
+    <row r="57" spans="5:9">
+      <c r="E57" s="9"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="9:9">
+    <row r="58" spans="5:9">
+      <c r="E58" s="9"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="9:9">
+    <row r="59" spans="5:9">
+      <c r="E59" s="9"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="9:9">
+    <row r="60" spans="5:9">
+      <c r="E60" s="9"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="9:9">
+    <row r="61" spans="5:9">
+      <c r="E61" s="9"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="9:9">
+    <row r="62" spans="5:9">
+      <c r="E62" s="9"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="9:9">
+    <row r="63" spans="5:9">
+      <c r="E63" s="9"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="9:9">
+    <row r="64" spans="5:9">
+      <c r="E64" s="9"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="9:9">
+    <row r="65" spans="5:9">
+      <c r="E65" s="9"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="9:9">
+    <row r="66" spans="5:9">
+      <c r="E66" s="9"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="9:9">
+    <row r="67" spans="5:9">
+      <c r="E67" s="9"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="9:9">
+    <row r="68" spans="5:9">
+      <c r="E68" s="9"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="9:9">
+    <row r="69" spans="5:9">
+      <c r="E69" s="9"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="9:9">
+    <row r="70" spans="5:9">
+      <c r="E70" s="9"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="9:9">
+    <row r="71" spans="5:9">
+      <c r="E71" s="9"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="9:9">
+    <row r="72" spans="5:9">
+      <c r="E72" s="9"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="9:9">
+    <row r="73" spans="5:9">
+      <c r="E73" s="9"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="9:9">
+    <row r="74" spans="5:9">
+      <c r="E74" s="9"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="9:9">
+    <row r="75" spans="5:9">
+      <c r="E75" s="9"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="9:9">
+    <row r="76" spans="5:9">
+      <c r="E76" s="9"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="9:9">
+    <row r="77" spans="5:9">
+      <c r="E77" s="9"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="9:9">
+    <row r="78" spans="5:9">
+      <c r="E78" s="9"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="9:9">
+    <row r="79" spans="5:9">
+      <c r="E79" s="9"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="9:9">
+    <row r="80" spans="5:9">
+      <c r="E80" s="9"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="9:9">
+    <row r="81" spans="5:9">
+      <c r="E81" s="9"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="9:9">
+    <row r="82" spans="5:9">
+      <c r="E82" s="9"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="9:9">
+    <row r="83" spans="5:9">
+      <c r="E83" s="9"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="9:9">
+    <row r="84" spans="5:9">
+      <c r="E84" s="9"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="9:9">
+    <row r="85" spans="5:9">
+      <c r="E85" s="9"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="9:9">
+    <row r="86" spans="5:9">
+      <c r="E86" s="9"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="9:9">
+    <row r="87" spans="5:9">
+      <c r="E87" s="9"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="9:9">
+    <row r="88" spans="5:9">
+      <c r="E88" s="9"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="9:9">
+    <row r="89" spans="5:9">
+      <c r="E89" s="9"/>
       <c r="I89" s="2"/>
     </row>
+    <row r="90" spans="5:9">
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="5:9">
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="5:9">
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="5:9">
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="5:9">
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="5:9">
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="5:9">
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="9"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="9"/>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" s="9"/>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="9"/>
+    </row>
+    <row r="140" spans="5:5">
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="5:5">
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" s="9"/>
+    </row>
+    <row r="162" spans="5:5">
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="5:5">
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="5:5">
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="5:5">
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="5:5">
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="5:5">
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="5:5">
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="5:5">
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="5:5">
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="5:5">
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="5:5">
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="5:5">
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" spans="5:5">
+      <c r="E177" s="8"/>
+    </row>
+    <row r="178" spans="5:5">
+      <c r="E178" s="8"/>
+    </row>
+    <row r="179" spans="5:5">
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" spans="5:5">
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" spans="5:5">
+      <c r="E181" s="8"/>
+    </row>
+    <row r="182" spans="5:5">
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" s="8"/>
+    </row>
+    <row r="184" spans="5:5">
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" spans="5:5">
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="5:5">
+      <c r="E186" s="8"/>
+    </row>
+    <row r="187" spans="5:5">
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="5:5">
+      <c r="E188" s="8"/>
+    </row>
+    <row r="189" spans="5:5">
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" spans="5:5">
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="5:5">
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" spans="5:5">
+      <c r="E192" s="8"/>
+    </row>
+    <row r="193" spans="5:5">
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" spans="5:5">
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="5:5">
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" spans="5:5">
+      <c r="E196" s="8"/>
+    </row>
+    <row r="197" spans="5:5">
+      <c r="E197" s="8"/>
+    </row>
+    <row r="198" spans="5:5">
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" spans="5:5">
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" spans="5:5">
+      <c r="E200" s="8"/>
+    </row>
+    <row r="201" spans="5:5">
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" spans="5:5">
+      <c r="E202" s="8"/>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203" s="8"/>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204" s="8"/>
+    </row>
+    <row r="205" spans="5:5">
+      <c r="E205" s="8"/>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" s="8"/>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="8"/>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" s="8"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" s="8"/>
+    </row>
+    <row r="210" spans="5:5">
+      <c r="E210" s="8"/>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" s="8"/>
+    </row>
+    <row r="212" spans="5:5">
+      <c r="E212" s="8"/>
+    </row>
+    <row r="213" spans="5:5">
+      <c r="E213" s="8"/>
+    </row>
+    <row r="214" spans="5:5">
+      <c r="E214" s="8"/>
+    </row>
+    <row r="215" spans="5:5">
+      <c r="E215" s="8"/>
+    </row>
+    <row r="216" spans="5:5">
+      <c r="E216" s="8"/>
+    </row>
+    <row r="217" spans="5:5">
+      <c r="E217" s="8"/>
+    </row>
+    <row r="218" spans="5:5">
+      <c r="E218" s="8"/>
+    </row>
+    <row r="219" spans="5:5">
+      <c r="E219" s="8"/>
+    </row>
+    <row r="220" spans="5:5">
+      <c r="E220" s="8"/>
+    </row>
+    <row r="221" spans="5:5">
+      <c r="E221" s="8"/>
+    </row>
+    <row r="222" spans="5:5">
+      <c r="E222" s="8"/>
+    </row>
+    <row r="223" spans="5:5">
+      <c r="E223" s="8"/>
+    </row>
+    <row r="224" spans="5:5">
+      <c r="E224" s="8"/>
+    </row>
+    <row r="225" spans="5:5">
+      <c r="E225" s="8"/>
+    </row>
+    <row r="226" spans="5:5">
+      <c r="E226" s="8"/>
+    </row>
+    <row r="227" spans="5:5">
+      <c r="E227" s="8"/>
+    </row>
+    <row r="228" spans="5:5">
+      <c r="E228" s="8"/>
+    </row>
+    <row r="229" spans="5:5">
+      <c r="E229" s="8"/>
+    </row>
+    <row r="230" spans="5:5">
+      <c r="E230" s="8"/>
+    </row>
+    <row r="231" spans="5:5">
+      <c r="E231" s="8"/>
+    </row>
+    <row r="232" spans="5:5">
+      <c r="E232" s="8"/>
+    </row>
+    <row r="233" spans="5:5">
+      <c r="E233" s="8"/>
+    </row>
+    <row r="234" spans="5:5">
+      <c r="E234" s="8"/>
+    </row>
+    <row r="235" spans="5:5">
+      <c r="E235" s="8"/>
+    </row>
+    <row r="236" spans="5:5">
+      <c r="E236" s="8"/>
+    </row>
+    <row r="237" spans="5:5">
+      <c r="E237" s="8"/>
+    </row>
+    <row r="238" spans="5:5">
+      <c r="E238" s="8"/>
+    </row>
+    <row r="239" spans="5:5">
+      <c r="E239" s="8"/>
+    </row>
+    <row r="240" spans="5:5">
+      <c r="E240" s="8"/>
+    </row>
+    <row r="241" spans="5:5">
+      <c r="E241" s="8"/>
+    </row>
+    <row r="242" spans="5:5">
+      <c r="E242" s="8"/>
+    </row>
+    <row r="243" spans="5:5">
+      <c r="E243" s="8"/>
+    </row>
+    <row r="244" spans="5:5">
+      <c r="E244" s="8"/>
+    </row>
+    <row r="245" spans="5:5">
+      <c r="E245" s="8"/>
+    </row>
+    <row r="246" spans="5:5">
+      <c r="E246" s="8"/>
+    </row>
+    <row r="247" spans="5:5">
+      <c r="E247" s="8"/>
+    </row>
+    <row r="248" spans="5:5">
+      <c r="E248" s="8"/>
+    </row>
+    <row r="249" spans="5:5">
+      <c r="E249" s="8"/>
+    </row>
+    <row r="250" spans="5:5">
+      <c r="E250" s="8"/>
+    </row>
+    <row r="251" spans="5:5">
+      <c r="E251" s="8"/>
+    </row>
+    <row r="252" spans="5:5">
+      <c r="E252" s="8"/>
+    </row>
+    <row r="253" spans="5:5">
+      <c r="E253" s="8"/>
+    </row>
+    <row r="254" spans="5:5">
+      <c r="E254" s="8"/>
+    </row>
+    <row r="255" spans="5:5">
+      <c r="E255" s="8"/>
+    </row>
+    <row r="256" spans="5:5">
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" spans="5:5">
+      <c r="E257" s="8"/>
+    </row>
+    <row r="258" spans="5:5">
+      <c r="E258" s="8"/>
+    </row>
+    <row r="259" spans="5:5">
+      <c r="E259" s="8"/>
+    </row>
+    <row r="260" spans="5:5">
+      <c r="E260" s="8"/>
+    </row>
+    <row r="261" spans="5:5">
+      <c r="E261" s="8"/>
+    </row>
+    <row r="262" spans="5:5">
+      <c r="E262" s="8"/>
+    </row>
+    <row r="263" spans="5:5">
+      <c r="E263" s="8"/>
+    </row>
+    <row r="264" spans="5:5">
+      <c r="E264" s="8"/>
+    </row>
+    <row r="265" spans="5:5">
+      <c r="E265" s="8"/>
+    </row>
+    <row r="266" spans="5:5">
+      <c r="E266" s="8"/>
+    </row>
+    <row r="267" spans="5:5">
+      <c r="E267" s="8"/>
+    </row>
+    <row r="268" spans="5:5">
+      <c r="E268" s="8"/>
+    </row>
+    <row r="269" spans="5:5">
+      <c r="E269" s="8"/>
+    </row>
+    <row r="270" spans="5:5">
+      <c r="E270" s="8"/>
+    </row>
+    <row r="271" spans="5:5">
+      <c r="E271" s="8"/>
+    </row>
+    <row r="272" spans="5:5">
+      <c r="E272" s="8"/>
+    </row>
+    <row r="273" spans="5:5">
+      <c r="E273" s="8"/>
+    </row>
+    <row r="274" spans="5:5">
+      <c r="E274" s="8"/>
+    </row>
+    <row r="275" spans="5:5">
+      <c r="E275" s="8"/>
+    </row>
+    <row r="276" spans="5:5">
+      <c r="E276" s="8"/>
+    </row>
+    <row r="277" spans="5:5">
+      <c r="E277" s="8"/>
+    </row>
+    <row r="278" spans="5:5">
+      <c r="E278" s="8"/>
+    </row>
+    <row r="279" spans="5:5">
+      <c r="E279" s="8"/>
+    </row>
+    <row r="280" spans="5:5">
+      <c r="E280" s="10"/>
+    </row>
+    <row r="281" spans="5:5">
+      <c r="E281" s="10"/>
+    </row>
+    <row r="282" spans="5:5">
+      <c r="E282" s="10"/>
+    </row>
+    <row r="283" spans="5:5">
+      <c r="E283" s="10"/>
+    </row>
+    <row r="284" spans="5:5">
+      <c r="E284" s="10"/>
+    </row>
+    <row r="285" spans="5:5">
+      <c r="E285" s="10"/>
+    </row>
+    <row r="286" spans="5:5">
+      <c r="E286" s="10"/>
+    </row>
+    <row r="287" spans="5:5">
+      <c r="E287" s="10"/>
+    </row>
+    <row r="288" spans="5:5">
+      <c r="E288" s="10"/>
+    </row>
+    <row r="289" spans="5:5">
+      <c r="E289" s="10"/>
+    </row>
+    <row r="290" spans="5:5">
+      <c r="E290" s="10"/>
+    </row>
+    <row r="291" spans="5:5">
+      <c r="E291" s="10"/>
+    </row>
+    <row r="292" spans="5:5">
+      <c r="E292" s="10"/>
+    </row>
+    <row r="293" spans="5:5">
+      <c r="E293" s="10"/>
+    </row>
+    <row r="294" spans="5:5">
+      <c r="E294" s="10"/>
+    </row>
+    <row r="295" spans="5:5">
+      <c r="E295" s="10"/>
+    </row>
+    <row r="296" spans="5:5">
+      <c r="E296" s="10"/>
+    </row>
+    <row r="297" spans="5:5">
+      <c r="E297" s="10"/>
+    </row>
+    <row r="298" spans="5:5">
+      <c r="E298" s="10"/>
+    </row>
+    <row r="299" spans="5:5">
+      <c r="E299" s="10"/>
+    </row>
+    <row r="300" spans="5:5">
+      <c r="E300" s="10"/>
+    </row>
+    <row r="301" spans="5:5">
+      <c r="E301" s="10"/>
+    </row>
+    <row r="302" spans="5:5">
+      <c r="E302" s="10"/>
+    </row>
+    <row r="303" spans="5:5">
+      <c r="E303" s="10"/>
+    </row>
+    <row r="304" spans="5:5">
+      <c r="E304" s="10"/>
+    </row>
+    <row r="305" spans="5:5">
+      <c r="E305" s="10"/>
+    </row>
+    <row r="306" spans="5:5">
+      <c r="E306" s="10"/>
+    </row>
+    <row r="307" spans="5:5">
+      <c r="E307" s="10"/>
+    </row>
+    <row r="308" spans="5:5">
+      <c r="E308" s="10"/>
+    </row>
+    <row r="309" spans="5:5">
+      <c r="E309" s="10"/>
+    </row>
+    <row r="310" spans="5:5">
+      <c r="E310" s="10"/>
+    </row>
+    <row r="311" spans="5:5">
+      <c r="E311" s="10"/>
+    </row>
+    <row r="312" spans="5:5">
+      <c r="E312" s="10"/>
+    </row>
+    <row r="313" spans="5:5">
+      <c r="E313" s="10"/>
+    </row>
+    <row r="314" spans="5:5">
+      <c r="E314" s="8"/>
+    </row>
+    <row r="315" spans="5:5">
+      <c r="E315" s="8"/>
+    </row>
+    <row r="316" spans="5:5">
+      <c r="E316" s="8"/>
+    </row>
+    <row r="317" spans="5:5">
+      <c r="E317" s="8"/>
+    </row>
+    <row r="318" spans="5:5">
+      <c r="E318" s="8"/>
+    </row>
+    <row r="319" spans="5:5">
+      <c r="E319" s="10"/>
+    </row>
+    <row r="320" spans="5:5">
+      <c r="E320" s="8"/>
+    </row>
+    <row r="321" spans="5:5">
+      <c r="E321" s="8"/>
+    </row>
+    <row r="322" spans="5:5">
+      <c r="E322" s="8"/>
+    </row>
+    <row r="323" spans="5:5">
+      <c r="E323" s="8"/>
+    </row>
+    <row r="324" spans="5:5">
+      <c r="E324" s="8"/>
+    </row>
+    <row r="325" spans="5:5">
+      <c r="E325" s="10"/>
+    </row>
+    <row r="326" spans="5:5">
+      <c r="E326" s="8"/>
+    </row>
+    <row r="327" spans="5:5">
+      <c r="E327" s="8"/>
+    </row>
+    <row r="328" spans="5:5">
+      <c r="E328" s="8"/>
+    </row>
+    <row r="329" spans="5:5">
+      <c r="E329" s="8"/>
+    </row>
+    <row r="330" spans="5:5">
+      <c r="E330" s="8"/>
+    </row>
+    <row r="331" spans="5:5">
+      <c r="E331" s="8"/>
+    </row>
+    <row r="332" spans="5:5">
+      <c r="E332" s="8"/>
+    </row>
+    <row r="333" spans="5:5">
+      <c r="E333" s="8"/>
+    </row>
+    <row r="334" spans="5:5">
+      <c r="E334" s="8"/>
+    </row>
+    <row r="335" spans="5:5">
+      <c r="E335" s="8"/>
+    </row>
+    <row r="336" spans="5:5">
+      <c r="E336" s="8"/>
+    </row>
+    <row r="337" spans="5:5">
+      <c r="E337" s="8"/>
+    </row>
+    <row r="338" spans="5:5">
+      <c r="E338" s="10"/>
+    </row>
+    <row r="339" spans="5:5">
+      <c r="E339" s="10"/>
+    </row>
+    <row r="340" spans="5:5">
+      <c r="E340" s="10"/>
+    </row>
+    <row r="341" spans="5:5">
+      <c r="E341" s="10"/>
+    </row>
+    <row r="342" spans="5:5">
+      <c r="E342" s="10"/>
+    </row>
+    <row r="343" spans="5:5">
+      <c r="E343" s="8"/>
+    </row>
+    <row r="344" spans="5:5">
+      <c r="E344" s="10"/>
+    </row>
+    <row r="345" spans="5:5">
+      <c r="E345" s="10"/>
+    </row>
+    <row r="346" spans="5:5">
+      <c r="E346" s="10"/>
+    </row>
+    <row r="347" spans="5:5">
+      <c r="E347" s="10"/>
+    </row>
+    <row r="348" spans="5:5">
+      <c r="E348" s="10"/>
+    </row>
+    <row r="349" spans="5:5">
+      <c r="E349" s="10"/>
+    </row>
+    <row r="350" spans="5:5">
+      <c r="E350" s="10"/>
+    </row>
+    <row r="351" spans="5:5">
+      <c r="E351" s="10"/>
+    </row>
+    <row r="352" spans="5:5">
+      <c r="E352" s="10"/>
+    </row>
+    <row r="353" spans="5:5">
+      <c r="E353" s="10"/>
+    </row>
+    <row r="354" spans="5:5">
+      <c r="E354" s="10"/>
+    </row>
+    <row r="355" spans="5:5">
+      <c r="E355" s="10"/>
+    </row>
+    <row r="356" spans="5:5">
+      <c r="E356" s="10"/>
+    </row>
+    <row r="357" spans="5:5">
+      <c r="E357" s="10"/>
+    </row>
+    <row r="358" spans="5:5">
+      <c r="E358" s="10"/>
+    </row>
+    <row r="359" spans="5:5">
+      <c r="E359" s="10"/>
+    </row>
+    <row r="360" spans="5:5">
+      <c r="E360" s="10"/>
+    </row>
+    <row r="361" spans="5:5">
+      <c r="E361" s="10"/>
+    </row>
+    <row r="362" spans="5:5">
+      <c r="E362" s="10"/>
+    </row>
+    <row r="363" spans="5:5">
+      <c r="E363" s="10"/>
+    </row>
+    <row r="364" spans="5:5">
+      <c r="E364" s="10"/>
+    </row>
+    <row r="365" spans="5:5">
+      <c r="E365" s="10"/>
+    </row>
+    <row r="366" spans="5:5">
+      <c r="E366" s="10"/>
+    </row>
+    <row r="367" spans="5:5">
+      <c r="E367" s="10"/>
+    </row>
+    <row r="368" spans="5:5">
+      <c r="E368" s="10"/>
+    </row>
+    <row r="369" spans="5:5">
+      <c r="E369" s="10"/>
+    </row>
+    <row r="370" spans="5:5">
+      <c r="E370" s="10"/>
+    </row>
+    <row r="371" spans="5:5">
+      <c r="E371" s="10"/>
+    </row>
+    <row r="372" spans="5:5">
+      <c r="E372" s="10"/>
+    </row>
+    <row r="373" spans="5:5">
+      <c r="E373" s="10"/>
+    </row>
+    <row r="374" spans="5:5">
+      <c r="E374" s="10"/>
+    </row>
+    <row r="375" spans="5:5">
+      <c r="E375" s="10"/>
+    </row>
+    <row r="376" spans="5:5">
+      <c r="E376" s="10"/>
+    </row>
+    <row r="377" spans="5:5">
+      <c r="E377" s="10"/>
+    </row>
+    <row r="378" spans="5:5">
+      <c r="E378" s="10"/>
+    </row>
+    <row r="379" spans="5:5">
+      <c r="E379" s="8"/>
+    </row>
+    <row r="380" spans="5:5">
+      <c r="E380" s="8"/>
+    </row>
+    <row r="381" spans="5:5">
+      <c r="E381" s="8"/>
+    </row>
+    <row r="382" spans="5:5">
+      <c r="E382" s="8"/>
+    </row>
+    <row r="383" spans="5:5">
+      <c r="E383" s="8"/>
+    </row>
+    <row r="384" spans="5:5">
+      <c r="E384" s="8"/>
+    </row>
+    <row r="385" spans="5:5">
+      <c r="E385" s="8"/>
+    </row>
+    <row r="386" spans="5:5">
+      <c r="E386" s="8"/>
+    </row>
+    <row r="387" spans="5:5">
+      <c r="E387" s="8"/>
+    </row>
+    <row r="388" spans="5:5">
+      <c r="E388" s="8"/>
+    </row>
+    <row r="389" spans="5:5">
+      <c r="E389" s="8"/>
+    </row>
+    <row r="390" spans="5:5">
+      <c r="E390" s="8"/>
+    </row>
+    <row r="391" spans="5:5">
+      <c r="E391" s="8"/>
+    </row>
+    <row r="392" spans="5:5">
+      <c r="E392" s="8"/>
+    </row>
+    <row r="393" spans="5:5">
+      <c r="E393" s="8"/>
+    </row>
+    <row r="394" spans="5:5">
+      <c r="E394" s="8"/>
+    </row>
+    <row r="395" spans="5:5">
+      <c r="E395" s="8"/>
+    </row>
+    <row r="396" spans="5:5">
+      <c r="E396" s="8"/>
+    </row>
+    <row r="397" spans="5:5">
+      <c r="E397" s="8"/>
+    </row>
+    <row r="398" spans="5:5">
+      <c r="E398" s="8"/>
+    </row>
+    <row r="399" spans="5:5">
+      <c r="E399" s="8"/>
+    </row>
+    <row r="400" spans="5:5">
+      <c r="E400" s="8"/>
+    </row>
+    <row r="401" spans="5:5">
+      <c r="E401" s="8"/>
+    </row>
+    <row r="402" spans="5:5">
+      <c r="E402" s="8"/>
+    </row>
+    <row r="403" spans="5:5">
+      <c r="E403" s="8"/>
+    </row>
+    <row r="404" spans="5:5">
+      <c r="E404" s="8"/>
+    </row>
+    <row r="405" spans="5:5">
+      <c r="E405" s="8"/>
+    </row>
+    <row r="406" spans="5:5">
+      <c r="E406" s="8"/>
+    </row>
+    <row r="407" spans="5:5">
+      <c r="E407" s="8"/>
+    </row>
+    <row r="408" spans="5:5">
+      <c r="E408" s="8"/>
+    </row>
+    <row r="409" spans="5:5">
+      <c r="E409" s="8"/>
+    </row>
+    <row r="410" spans="5:5">
+      <c r="E410" s="8"/>
+    </row>
+    <row r="411" spans="5:5">
+      <c r="E411" s="8"/>
+    </row>
+    <row r="412" spans="5:5">
+      <c r="E412" s="8"/>
+    </row>
+    <row r="413" spans="5:5">
+      <c r="E413" s="8"/>
+    </row>
+    <row r="414" spans="5:5">
+      <c r="E414" s="8"/>
+    </row>
+    <row r="415" spans="5:5">
+      <c r="E415" s="8"/>
+    </row>
+    <row r="416" spans="5:5">
+      <c r="E416" s="8"/>
+    </row>
+    <row r="417" spans="5:5">
+      <c r="E417" s="8"/>
+    </row>
+    <row r="418" spans="5:5">
+      <c r="E418" s="8"/>
+    </row>
+    <row r="419" spans="5:5">
+      <c r="E419" s="8"/>
+    </row>
+    <row r="420" spans="5:5">
+      <c r="E420" s="8"/>
+    </row>
+    <row r="421" spans="5:5">
+      <c r="E421" s="8"/>
+    </row>
+    <row r="422" spans="5:5">
+      <c r="E422" s="8"/>
+    </row>
+    <row r="423" spans="5:5">
+      <c r="E423" s="8"/>
+    </row>
+    <row r="424" spans="5:5">
+      <c r="E424" s="8"/>
+    </row>
+    <row r="425" spans="5:5">
+      <c r="E425" s="8"/>
+    </row>
+    <row r="426" spans="5:5">
+      <c r="E426" s="8"/>
+    </row>
+    <row r="427" spans="5:5">
+      <c r="E427" s="8"/>
+    </row>
+    <row r="428" spans="5:5">
+      <c r="E428" s="8"/>
+    </row>
+    <row r="429" spans="5:5">
+      <c r="E429" s="8"/>
+    </row>
+    <row r="430" spans="5:5">
+      <c r="E430" s="8"/>
+    </row>
+    <row r="431" spans="5:5">
+      <c r="E431" s="8"/>
+    </row>
+    <row r="432" spans="5:5">
+      <c r="E432" s="8"/>
+    </row>
+    <row r="433" spans="5:5">
+      <c r="E433" s="8"/>
+    </row>
+    <row r="434" spans="5:5">
+      <c r="E434" s="8"/>
+    </row>
+    <row r="435" spans="5:5">
+      <c r="E435" s="8"/>
+    </row>
+    <row r="436" spans="5:5">
+      <c r="E436" s="8"/>
+    </row>
+    <row r="437" spans="5:5">
+      <c r="E437" s="8"/>
+    </row>
+    <row r="438" spans="5:5">
+      <c r="E438" s="8"/>
+    </row>
+    <row r="439" spans="5:5">
+      <c r="E439" s="8"/>
+    </row>
+    <row r="440" spans="5:5">
+      <c r="E440" s="8"/>
+    </row>
+    <row r="441" spans="5:5">
+      <c r="E441" s="8"/>
+    </row>
+    <row r="442" spans="5:5">
+      <c r="E442" s="8"/>
+    </row>
+    <row r="443" spans="5:5">
+      <c r="E443" s="8"/>
+    </row>
+    <row r="444" spans="5:5">
+      <c r="E444" s="8"/>
+    </row>
+    <row r="445" spans="5:5">
+      <c r="E445" s="8"/>
+    </row>
+    <row r="446" spans="5:5">
+      <c r="E446" s="8"/>
+    </row>
+    <row r="447" spans="5:5">
+      <c r="E447" s="8"/>
+    </row>
+    <row r="448" spans="5:5">
+      <c r="E448" s="8"/>
+    </row>
+    <row r="449" spans="5:5">
+      <c r="E449" s="8"/>
+    </row>
+    <row r="450" spans="5:5">
+      <c r="E450" s="8"/>
+    </row>
+    <row r="451" spans="5:5">
+      <c r="E451" s="8"/>
+    </row>
+    <row r="452" spans="5:5">
+      <c r="E452" s="8"/>
+    </row>
+    <row r="453" spans="5:5">
+      <c r="E453" s="8"/>
+    </row>
+    <row r="454" spans="5:5">
+      <c r="E454" s="8"/>
+    </row>
+    <row r="455" spans="5:5">
+      <c r="E455" s="8"/>
+    </row>
+    <row r="456" spans="5:5">
+      <c r="E456" s="8"/>
+    </row>
+    <row r="457" spans="5:5">
+      <c r="E457" s="8"/>
+    </row>
+    <row r="458" spans="5:5">
+      <c r="E458" s="8"/>
+    </row>
+    <row r="459" spans="5:5">
+      <c r="E459" s="8"/>
+    </row>
+    <row r="460" spans="5:5">
+      <c r="E460" s="8"/>
+    </row>
+    <row r="461" spans="5:5">
+      <c r="E461" s="8"/>
+    </row>
+    <row r="462" spans="5:5">
+      <c r="E462" s="8"/>
+    </row>
+    <row r="463" spans="5:5">
+      <c r="E463" s="8"/>
+    </row>
+    <row r="464" spans="5:5">
+      <c r="E464" s="8"/>
+    </row>
+    <row r="465" spans="5:5">
+      <c r="E465" s="8"/>
+    </row>
+    <row r="466" spans="5:5">
+      <c r="E466" s="8"/>
+    </row>
+    <row r="467" spans="5:5">
+      <c r="E467" s="8"/>
+    </row>
+    <row r="468" spans="5:5">
+      <c r="E468" s="8"/>
+    </row>
+    <row r="469" spans="5:5">
+      <c r="E469" s="8"/>
+    </row>
+    <row r="470" spans="5:5">
+      <c r="E470" s="8"/>
+    </row>
+    <row r="471" spans="5:5">
+      <c r="E471" s="8"/>
+    </row>
+    <row r="472" spans="5:5">
+      <c r="E472" s="8"/>
+    </row>
+    <row r="473" spans="5:5">
+      <c r="E473" s="8"/>
+    </row>
+    <row r="474" spans="5:5">
+      <c r="E474" s="8"/>
+    </row>
+    <row r="475" spans="5:5">
+      <c r="E475" s="8"/>
+    </row>
+    <row r="476" spans="5:5">
+      <c r="E476" s="8"/>
+    </row>
+    <row r="477" spans="5:5">
+      <c r="E477" s="8"/>
+    </row>
+    <row r="478" spans="5:5">
+      <c r="E478" s="8"/>
+    </row>
+    <row r="479" spans="5:5">
+      <c r="E479" s="8"/>
+    </row>
+    <row r="480" spans="5:5">
+      <c r="E480" s="8"/>
+    </row>
+    <row r="481" spans="5:5">
+      <c r="E481" s="8"/>
+    </row>
+    <row r="482" spans="5:5">
+      <c r="E482" s="8"/>
+    </row>
+    <row r="483" spans="5:5">
+      <c r="E483" s="8"/>
+    </row>
+    <row r="484" spans="5:5">
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485" spans="5:5">
+      <c r="E485" s="10"/>
+    </row>
+    <row r="486" spans="5:5">
+      <c r="E486" s="10"/>
+    </row>
+    <row r="487" spans="5:5">
+      <c r="E487" s="10"/>
+    </row>
+    <row r="488" spans="5:5">
+      <c r="E488" s="10"/>
+    </row>
+    <row r="489" spans="5:5">
+      <c r="E489" s="10"/>
+    </row>
+    <row r="490" spans="5:5">
+      <c r="E490" s="10"/>
+    </row>
+    <row r="491" spans="5:5">
+      <c r="E491" s="10"/>
+    </row>
+    <row r="492" spans="5:5">
+      <c r="E492" s="10"/>
+    </row>
+    <row r="493" spans="5:5">
+      <c r="E493" s="10"/>
+    </row>
+    <row r="494" spans="5:5">
+      <c r="E494" s="10"/>
+    </row>
+    <row r="495" spans="5:5">
+      <c r="E495" s="10"/>
+    </row>
+    <row r="496" spans="5:5">
+      <c r="E496" s="10"/>
+    </row>
+    <row r="497" spans="5:5">
+      <c r="E497" s="10"/>
+    </row>
+    <row r="498" spans="5:5">
+      <c r="E498" s="10"/>
+    </row>
+    <row r="499" spans="5:5">
+      <c r="E499" s="10"/>
+    </row>
+    <row r="500" spans="5:5">
+      <c r="E500" s="10"/>
+    </row>
+    <row r="501" spans="5:5">
+      <c r="E501" s="10"/>
+    </row>
+    <row r="502" spans="5:5">
+      <c r="E502" s="10"/>
+    </row>
+    <row r="503" spans="5:5">
+      <c r="E503" s="10"/>
+    </row>
+    <row r="504" spans="5:5">
+      <c r="E504" s="10"/>
+    </row>
+    <row r="505" spans="5:5">
+      <c r="E505" s="10"/>
+    </row>
+    <row r="506" spans="5:5">
+      <c r="E506" s="10"/>
+    </row>
+    <row r="507" spans="5:5">
+      <c r="E507" s="10"/>
+    </row>
+    <row r="508" spans="5:5">
+      <c r="E508" s="10"/>
+    </row>
+    <row r="509" spans="5:5">
+      <c r="E509" s="10"/>
+    </row>
+    <row r="510" spans="5:5">
+      <c r="E510" s="10"/>
+    </row>
+    <row r="511" spans="5:5">
+      <c r="E511" s="10"/>
+    </row>
+    <row r="512" spans="5:5">
+      <c r="E512" s="10"/>
+    </row>
+    <row r="513" spans="5:5">
+      <c r="E513" s="10"/>
+    </row>
+    <row r="514" spans="5:5">
+      <c r="E514" s="10"/>
+    </row>
+    <row r="515" spans="5:5">
+      <c r="E515" s="10"/>
+    </row>
+    <row r="516" spans="5:5">
+      <c r="E516" s="10"/>
+    </row>
+    <row r="517" spans="5:5">
+      <c r="E517" s="10"/>
+    </row>
+    <row r="518" spans="5:5">
+      <c r="E518" s="10"/>
+    </row>
+    <row r="519" spans="5:5">
+      <c r="E519" s="8"/>
+    </row>
+    <row r="520" spans="5:5">
+      <c r="E520" s="8"/>
+    </row>
+    <row r="521" spans="5:5">
+      <c r="E521" s="8"/>
+    </row>
+    <row r="522" spans="5:5">
+      <c r="E522" s="8"/>
+    </row>
+    <row r="523" spans="5:5">
+      <c r="E523" s="8"/>
+    </row>
+    <row r="524" spans="5:5">
+      <c r="E524" s="8"/>
+    </row>
+    <row r="525" spans="5:5">
+      <c r="E525" s="8"/>
+    </row>
+    <row r="526" spans="5:5">
+      <c r="E526" s="8"/>
+    </row>
+    <row r="527" spans="5:5">
+      <c r="E527" s="8"/>
+    </row>
+    <row r="528" spans="5:5">
+      <c r="E528" s="8"/>
+    </row>
+    <row r="529" spans="5:5">
+      <c r="E529" s="8"/>
+    </row>
+    <row r="530" spans="5:5">
+      <c r="E530" s="8"/>
+    </row>
+    <row r="531" spans="5:5">
+      <c r="E531" s="8"/>
+    </row>
+    <row r="532" spans="5:5">
+      <c r="E532" s="8"/>
+    </row>
+    <row r="533" spans="5:5">
+      <c r="E533" s="8"/>
+    </row>
+    <row r="534" spans="5:5">
+      <c r="E534" s="8"/>
+    </row>
+    <row r="535" spans="5:5">
+      <c r="E535" s="8"/>
+    </row>
+    <row r="536" spans="5:5">
+      <c r="E536" s="8"/>
+    </row>
+    <row r="537" spans="5:5">
+      <c r="E537" s="8"/>
+    </row>
+    <row r="538" spans="5:5">
+      <c r="E538" s="8"/>
+    </row>
+    <row r="539" spans="5:5">
+      <c r="E539" s="8"/>
+    </row>
+    <row r="540" spans="5:5">
+      <c r="E540" s="8"/>
+    </row>
+    <row r="541" spans="5:5">
+      <c r="E541" s="8"/>
+    </row>
+    <row r="542" spans="5:5">
+      <c r="E542" s="8"/>
+    </row>
+    <row r="543" spans="5:5">
+      <c r="E543" s="8"/>
+    </row>
+    <row r="544" spans="5:5">
+      <c r="E544" s="8"/>
+    </row>
+    <row r="545" spans="5:5">
+      <c r="E545" s="8"/>
+    </row>
+    <row r="546" spans="5:5">
+      <c r="E546" s="8"/>
+    </row>
+    <row r="547" spans="5:5">
+      <c r="E547" s="8"/>
+    </row>
+    <row r="548" spans="5:5">
+      <c r="E548" s="8"/>
+    </row>
+    <row r="549" spans="5:5">
+      <c r="E549" s="8"/>
+    </row>
+    <row r="550" spans="5:5">
+      <c r="E550" s="8"/>
+    </row>
+    <row r="551" spans="5:5">
+      <c r="E551" s="8"/>
+    </row>
+    <row r="552" spans="5:5">
+      <c r="E552" s="8"/>
+    </row>
+    <row r="553" spans="5:5">
+      <c r="E553" s="8"/>
+    </row>
+    <row r="554" spans="5:5">
+      <c r="E554" s="8"/>
+    </row>
+    <row r="555" spans="5:5">
+      <c r="E555" s="8"/>
+    </row>
+    <row r="556" spans="5:5">
+      <c r="E556" s="8"/>
+    </row>
+    <row r="557" spans="5:5">
+      <c r="E557" s="8"/>
+    </row>
+    <row r="558" spans="5:5">
+      <c r="E558" s="8"/>
+    </row>
+    <row r="559" spans="5:5">
+      <c r="E559" s="8"/>
+    </row>
+    <row r="560" spans="5:5">
+      <c r="E560" s="8"/>
+    </row>
+    <row r="561" spans="5:5">
+      <c r="E561" s="8"/>
+    </row>
+    <row r="562" spans="5:5">
+      <c r="E562" s="8"/>
+    </row>
+    <row r="563" spans="5:5">
+      <c r="E563" s="8"/>
+    </row>
+    <row r="564" spans="5:5">
+      <c r="E564" s="8"/>
+    </row>
+    <row r="565" spans="5:5">
+      <c r="E565" s="8"/>
+    </row>
+    <row r="566" spans="5:5">
+      <c r="E566" s="8"/>
+    </row>
+    <row r="567" spans="5:5">
+      <c r="E567" s="8"/>
+    </row>
+    <row r="568" spans="5:5">
+      <c r="E568" s="8"/>
+    </row>
+    <row r="569" spans="5:5">
+      <c r="E569" s="8"/>
+    </row>
+    <row r="570" spans="5:5">
+      <c r="E570" s="8"/>
+    </row>
+    <row r="571" spans="5:5">
+      <c r="E571" s="8"/>
+    </row>
+    <row r="572" spans="5:5">
+      <c r="E572" s="8"/>
+    </row>
+    <row r="573" spans="5:5">
+      <c r="E573" s="8"/>
+    </row>
+    <row r="574" spans="5:5">
+      <c r="E574" s="8"/>
+    </row>
+    <row r="575" spans="5:5">
+      <c r="E575" s="8"/>
+    </row>
+    <row r="576" spans="5:5">
+      <c r="E576" s="8"/>
+    </row>
+    <row r="577" spans="5:5">
+      <c r="E577" s="8"/>
+    </row>
+    <row r="578" spans="5:5">
+      <c r="E578" s="8"/>
+    </row>
+    <row r="579" spans="5:5">
+      <c r="E579" s="8"/>
+    </row>
+    <row r="580" spans="5:5">
+      <c r="E580" s="8"/>
+    </row>
+    <row r="581" spans="5:5">
+      <c r="E581" s="8"/>
+    </row>
+    <row r="582" spans="5:5">
+      <c r="E582" s="8"/>
+    </row>
+    <row r="583" spans="5:5">
+      <c r="E583" s="8"/>
+    </row>
+    <row r="584" spans="5:5">
+      <c r="E584" s="8"/>
+    </row>
+    <row r="585" spans="5:5">
+      <c r="E585" s="8"/>
+    </row>
+    <row r="586" spans="5:5">
+      <c r="E586" s="8"/>
+    </row>
+    <row r="587" spans="5:5">
+      <c r="E587" s="8"/>
+    </row>
+    <row r="588" spans="5:5">
+      <c r="E588" s="10"/>
+    </row>
+    <row r="589" spans="5:5">
+      <c r="E589" s="10"/>
+    </row>
+    <row r="590" spans="5:5">
+      <c r="E590" s="10"/>
+    </row>
+    <row r="591" spans="5:5">
+      <c r="E591" s="10"/>
+    </row>
+    <row r="592" spans="5:5">
+      <c r="E592" s="10"/>
+    </row>
+    <row r="593" spans="5:5">
+      <c r="E593" s="10"/>
+    </row>
+    <row r="594" spans="5:5">
+      <c r="E594" s="10"/>
+    </row>
+    <row r="595" spans="5:5">
+      <c r="E595" s="10"/>
+    </row>
+    <row r="596" spans="5:5">
+      <c r="E596" s="10"/>
+    </row>
+    <row r="597" spans="5:5">
+      <c r="E597" s="10"/>
+    </row>
+    <row r="598" spans="5:5">
+      <c r="E598" s="10"/>
+    </row>
+    <row r="599" spans="5:5">
+      <c r="E599" s="10"/>
+    </row>
+    <row r="600" spans="5:5">
+      <c r="E600" s="10"/>
+    </row>
+    <row r="601" spans="5:5">
+      <c r="E601" s="10"/>
+    </row>
+    <row r="602" spans="5:5">
+      <c r="E602" s="10"/>
+    </row>
+    <row r="603" spans="5:5">
+      <c r="E603" s="10"/>
+    </row>
+    <row r="604" spans="5:5">
+      <c r="E604" s="10"/>
+    </row>
+    <row r="605" spans="5:5">
+      <c r="E605" s="10"/>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048574">
-      <formula1>18</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048574">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048574">
-      <formula1>AND(ISERROR(FIND(" ",A1)),LEN(A1)-LEN(SUBSTITUTE(A1,"@",""))=1,IFERROR(SEARCH("@",A1)&lt;SEARCH(". ",A1,SEARCH("@",A1)),0),NOT(IFERROR(SEARCH("@",A1),0)=1),NOT(IFERROR(SEARCH(". ",A1,SEARCH("@",A1))-SEARCH("@",A1),0)=1),LEFT(A1,1)&lt;&gt;".",RIGHT(A1,1)&lt;&gt;".")</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B1048574">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048574</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048574</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:E1048574</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$D$2:$D$20</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1048574</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$E$2:$E$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L1048574</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$F$2:$F$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>N2:N1048574</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$G$1:$G$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>O2:O1048574</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$H$2:$H$79</xm:f>
-          </x14:formula1>
-          <xm:sqref>P2:P1048574</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$I$2:$I$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>R2:R1048574</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" customWidth="1"/>
-    <col min="6" max="6" width="27.08984375" customWidth="1"/>
-    <col min="7" max="7" width="18.90625" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P89"/>
   <sheetViews>
